--- a/storage/db (1).xlsx
+++ b/storage/db (1).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ussage\VS Code Projects\Pencak Silat Deploy\juri_pencak\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2787B03-D071-47BA-A618-20AA7B2FC212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -715,30 +724,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -748,51 +759,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -982,29 +1000,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.38"/>
-    <col customWidth="1" min="2" max="2" width="37.38"/>
-    <col customWidth="1" min="3" max="3" width="18.63"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="9.13"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1022,9 +1043,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1042,9 +1063,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1062,9 +1083,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1082,9 +1103,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1102,9 +1123,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1122,9 +1143,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1142,9 +1163,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -1162,9 +1183,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1182,9 +1203,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1202,9 +1223,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1222,9 +1243,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1242,9 +1263,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1262,9 +1283,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1282,9 +1303,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1302,9 +1323,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -1322,9 +1343,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1342,9 +1363,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1362,9 +1383,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -1382,9 +1403,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1402,9 +1423,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1422,9 +1443,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -1442,9 +1463,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -1462,9 +1483,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1482,9 +1503,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1502,9 +1523,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -1522,9 +1543,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
@@ -1542,9 +1563,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -1562,9 +1583,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -1582,9 +1603,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>46</v>
@@ -1602,9 +1623,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>47</v>
@@ -1622,9 +1643,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
@@ -1642,9 +1663,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -1662,9 +1683,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
@@ -1682,9 +1703,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -1702,9 +1723,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
@@ -1722,9 +1743,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>57</v>
@@ -1742,9 +1763,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1762,9 +1783,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>59</v>
@@ -1782,9 +1803,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>61</v>
@@ -1802,9 +1823,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -1822,9 +1843,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -1842,9 +1863,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
@@ -1862,9 +1883,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -1882,9 +1903,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>66</v>
@@ -1902,9 +1923,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>67</v>
@@ -1922,9 +1943,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -1942,9 +1963,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
@@ -1962,9 +1983,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
@@ -1982,9 +2003,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>71</v>
@@ -2002,9 +2023,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>73</v>
@@ -2022,9 +2043,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>74</v>
@@ -2042,9 +2063,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>68</v>
@@ -2062,9 +2083,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>76</v>
@@ -2082,9 +2103,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>78</v>
@@ -2102,9 +2123,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>79</v>
@@ -2122,9 +2143,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -2142,9 +2163,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
@@ -2162,9 +2183,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -2182,9 +2203,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>84</v>
@@ -2202,9 +2223,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -2222,9 +2243,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
@@ -2242,9 +2263,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>87</v>
@@ -2262,9 +2283,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>88</v>
@@ -2282,9 +2303,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
@@ -2302,9 +2323,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>90</v>
@@ -2322,9 +2343,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2342,9 +2363,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>92</v>
@@ -2362,9 +2383,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
@@ -2382,9 +2403,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>94</v>
@@ -2402,9 +2423,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
@@ -2422,9 +2443,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -2442,9 +2463,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>97</v>
@@ -2462,9 +2483,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
@@ -2482,9 +2503,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2502,9 +2523,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2522,9 +2543,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2542,9 +2563,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
@@ -2562,9 +2583,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -2582,9 +2603,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>105</v>
@@ -2602,9 +2623,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>106</v>
@@ -2622,9 +2643,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>107</v>
@@ -2642,9 +2663,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>108</v>
@@ -2662,9 +2683,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>109</v>
@@ -2682,9 +2703,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>110</v>
@@ -2702,9 +2723,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
@@ -2722,9 +2743,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
@@ -2742,9 +2763,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>113</v>
@@ -2762,9 +2783,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>114</v>
@@ -2782,9 +2803,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>115</v>
@@ -2802,9 +2823,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>116</v>
@@ -2822,9 +2843,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>117</v>
@@ -2842,9 +2863,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>118</v>
@@ -2862,9 +2883,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>119</v>
@@ -2882,9 +2903,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>120</v>
@@ -2902,9 +2923,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>121</v>
@@ -2922,9 +2943,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>122</v>
@@ -2942,9 +2963,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>123</v>
@@ -2962,9 +2983,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>124</v>
@@ -2982,9 +3003,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>125</v>
@@ -3002,9 +3023,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>126</v>
@@ -3022,9 +3043,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -3042,9 +3063,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>129</v>
@@ -3062,9 +3083,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>131</v>
@@ -3082,9 +3103,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>133</v>
@@ -3102,9 +3123,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>135</v>
@@ -3122,9 +3143,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -3142,9 +3163,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>138</v>
@@ -3162,9 +3183,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>140</v>
@@ -3182,9 +3203,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>142</v>
@@ -3202,9 +3223,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>143</v>
@@ -3222,9 +3243,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>144</v>
@@ -3242,9 +3263,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>145</v>
@@ -3262,9 +3283,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3282,9 +3303,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>147</v>
@@ -3302,9 +3323,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>148</v>
@@ -3322,9 +3343,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3342,9 +3363,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>150</v>
@@ -3362,9 +3383,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>151</v>
@@ -3382,9 +3403,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>152</v>
@@ -3402,9 +3423,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>153</v>
@@ -3422,9 +3443,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>154</v>
@@ -3442,9 +3463,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>155</v>
@@ -3462,9 +3483,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>156</v>
@@ -3482,9 +3503,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>157</v>
@@ -3502,9 +3523,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>158</v>
@@ -3522,9 +3543,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>159</v>
@@ -3542,9 +3563,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>160</v>
@@ -3562,9 +3583,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>161</v>
@@ -3582,9 +3603,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>162</v>
@@ -3602,9 +3623,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>163</v>
@@ -3622,9 +3643,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>164</v>
@@ -3642,9 +3663,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>165</v>
@@ -3662,9 +3683,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>166</v>
@@ -3682,9 +3703,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>168</v>
@@ -3702,9 +3723,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>169</v>
@@ -3722,9 +3743,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>170</v>
@@ -3742,9 +3763,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>171</v>
@@ -3762,9 +3783,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>172</v>
@@ -3782,9 +3803,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>173</v>
@@ -3802,9 +3823,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>174</v>
@@ -3822,9 +3843,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>175</v>
@@ -3842,9 +3863,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>176</v>
@@ -3862,9 +3883,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>177</v>
@@ -3882,9 +3903,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>178</v>
@@ -3902,9 +3923,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>179</v>
@@ -3922,9 +3943,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>180</v>
@@ -3942,9 +3963,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>181</v>
@@ -3962,9 +3983,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>182</v>
@@ -3982,9 +4003,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>183</v>
@@ -4002,9 +4023,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>184</v>
@@ -4022,9 +4043,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>185</v>
@@ -4042,9 +4063,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>186</v>
@@ -4062,9 +4083,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>187</v>
@@ -4082,9 +4103,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>188</v>
@@ -4102,9 +4123,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>189</v>
@@ -4122,9 +4143,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>190</v>
@@ -4142,9 +4163,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>191</v>
@@ -4162,9 +4183,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>192</v>
@@ -4182,9 +4203,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
@@ -4202,9 +4223,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>194</v>
@@ -4222,9 +4243,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>195</v>
@@ -4242,9 +4263,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>196</v>
@@ -4262,9 +4283,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>197</v>
@@ -4282,9 +4303,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>198</v>
@@ -4302,9 +4323,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>199</v>
@@ -4322,9 +4343,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>200</v>
@@ -4342,9 +4363,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>201</v>
@@ -4362,9 +4383,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>202</v>
@@ -4382,9 +4403,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>203</v>
@@ -4402,9 +4423,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>204</v>
@@ -4422,9 +4443,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>205</v>
@@ -4442,9 +4463,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>206</v>
@@ -4462,9 +4483,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>207</v>
@@ -4482,9 +4503,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>208</v>
@@ -4502,9 +4523,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>209</v>
@@ -4522,9 +4543,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>210</v>
@@ -4542,9 +4563,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>211</v>
@@ -4562,9 +4583,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>212</v>
@@ -4582,9 +4603,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>213</v>
@@ -4602,9 +4623,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>214</v>
@@ -4622,9 +4643,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>215</v>
@@ -4642,9 +4663,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>216</v>
@@ -4662,9 +4683,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>218</v>
@@ -4682,9 +4703,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>220</v>
@@ -4702,9 +4723,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>221</v>
@@ -4722,9 +4743,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>222</v>
@@ -4742,9 +4763,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>223</v>
@@ -4762,9 +4783,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>224</v>
@@ -4782,9 +4803,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>225</v>
@@ -4802,9 +4823,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>226</v>
@@ -4822,9 +4843,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>227</v>
@@ -4842,9 +4863,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>228</v>
@@ -4862,9 +4883,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>229</v>
@@ -4882,9 +4903,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>230</v>
@@ -4902,9 +4923,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>231</v>
@@ -4922,9 +4943,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>232</v>
@@ -4943,6 +4964,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/db (1).xlsx
+++ b/storage/db (1).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ussage\VS Code Projects\Pencak Silat Deploy\juri_pencak\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2787B03-D071-47BA-A618-20AA7B2FC212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC07F4-6219-4786-A046-A58AED74806B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1006,22 +1006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5436F1-62D9-4CDA-8275-B1632BA9FBFE}">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -3363,7 +3355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>

--- a/storage/db (1).xlsx
+++ b/storage/db (1).xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ussage\VS Code Projects\Pencak Silat Deploy\juri_pencak\storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC07F4-6219-4786-A046-A58AED74806B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -724,32 +715,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -759,58 +748,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1000,24 +982,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5436F1-62D9-4CDA-8275-B1632BA9FBFE}">
-  <dimension ref="A1:F197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.38"/>
+    <col customWidth="1" min="2" max="2" width="37.38"/>
+    <col customWidth="1" min="3" max="3" width="18.63"/>
+    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="5" max="5" width="9.13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1035,9 +1022,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1055,9 +1042,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1075,9 +1062,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1095,9 +1082,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1115,9 +1102,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1135,9 +1122,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1155,9 +1142,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -1175,9 +1162,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1195,9 +1182,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1215,9 +1202,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1235,9 +1222,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1255,9 +1242,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1275,9 +1262,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1295,9 +1282,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1315,9 +1302,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -1335,9 +1322,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1355,9 +1342,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1375,9 +1362,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -1395,9 +1382,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1415,9 +1402,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1435,9 +1422,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -1455,9 +1442,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -1475,9 +1462,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1495,9 +1482,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1515,9 +1502,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -1535,9 +1522,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
@@ -1555,9 +1542,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -1575,9 +1562,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -1595,9 +1582,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>46</v>
@@ -1615,9 +1602,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>47</v>
@@ -1635,9 +1622,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
@@ -1655,9 +1642,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -1675,9 +1662,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
@@ -1695,9 +1682,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -1715,9 +1702,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
@@ -1735,9 +1722,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>57</v>
@@ -1755,9 +1742,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1775,9 +1762,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>59</v>
@@ -1795,9 +1782,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>61</v>
@@ -1815,9 +1802,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -1835,9 +1822,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -1855,9 +1842,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
@@ -1875,9 +1862,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -1895,9 +1882,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>66</v>
@@ -1915,9 +1902,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>67</v>
@@ -1935,9 +1922,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -1955,9 +1942,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
@@ -1975,9 +1962,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
@@ -1995,9 +1982,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>71</v>
@@ -2015,9 +2002,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>73</v>
@@ -2035,9 +2022,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>74</v>
@@ -2055,9 +2042,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>68</v>
@@ -2075,9 +2062,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>76</v>
@@ -2095,9 +2082,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>78</v>
@@ -2115,9 +2102,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>79</v>
@@ -2135,9 +2122,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -2155,9 +2142,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
@@ -2175,9 +2162,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -2195,9 +2182,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>84</v>
@@ -2215,9 +2202,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -2235,9 +2222,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
@@ -2255,9 +2242,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>87</v>
@@ -2275,9 +2262,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>88</v>
@@ -2295,9 +2282,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
@@ -2315,9 +2302,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>90</v>
@@ -2335,9 +2322,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2355,9 +2342,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>92</v>
@@ -2375,9 +2362,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
@@ -2395,9 +2382,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>94</v>
@@ -2415,9 +2402,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
@@ -2435,9 +2422,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -2455,9 +2442,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>97</v>
@@ -2475,9 +2462,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
@@ -2495,9 +2482,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2515,9 +2502,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2535,9 +2522,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2555,9 +2542,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="1">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
@@ -2575,9 +2562,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -2595,9 +2582,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>105</v>
@@ -2615,9 +2602,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>106</v>
@@ -2635,9 +2622,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>107</v>
@@ -2655,9 +2642,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>108</v>
@@ -2675,9 +2662,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>109</v>
@@ -2695,9 +2682,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>110</v>
@@ -2715,9 +2702,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="1">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
@@ -2735,9 +2722,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
@@ -2755,9 +2742,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>113</v>
@@ -2775,9 +2762,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="1">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>114</v>
@@ -2795,9 +2782,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>115</v>
@@ -2815,9 +2802,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>116</v>
@@ -2835,9 +2822,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>117</v>
@@ -2855,9 +2842,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>118</v>
@@ -2875,9 +2862,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>119</v>
@@ -2895,9 +2882,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>120</v>
@@ -2915,9 +2902,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>121</v>
@@ -2935,9 +2922,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>122</v>
@@ -2955,9 +2942,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>123</v>
@@ -2975,9 +2962,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>124</v>
@@ -2995,9 +2982,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>125</v>
@@ -3015,9 +3002,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>126</v>
@@ -3035,9 +3022,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -3055,9 +3042,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>129</v>
@@ -3075,9 +3062,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>131</v>
@@ -3095,9 +3082,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="1">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>133</v>
@@ -3115,9 +3102,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>135</v>
@@ -3135,9 +3122,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="1">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -3155,9 +3142,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="1">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>138</v>
@@ -3175,9 +3162,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>140</v>
@@ -3195,9 +3182,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>142</v>
@@ -3215,9 +3202,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>143</v>
@@ -3235,9 +3222,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>144</v>
@@ -3255,9 +3242,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>145</v>
@@ -3275,9 +3262,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3295,9 +3282,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>147</v>
@@ -3315,9 +3302,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>148</v>
@@ -3335,9 +3322,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3355,9 +3342,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>150</v>
@@ -3375,9 +3362,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>151</v>
@@ -3395,9 +3382,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>152</v>
@@ -3415,9 +3402,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>153</v>
@@ -3435,9 +3422,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="1">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>154</v>
@@ -3455,9 +3442,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="1">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>155</v>
@@ -3475,9 +3462,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="1">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>156</v>
@@ -3495,9 +3482,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>157</v>
@@ -3515,9 +3502,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>158</v>
@@ -3535,9 +3522,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>159</v>
@@ -3555,9 +3542,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>160</v>
@@ -3575,9 +3562,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>161</v>
@@ -3595,9 +3582,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>162</v>
@@ -3615,9 +3602,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="1">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>163</v>
@@ -3635,9 +3622,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="1">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>164</v>
@@ -3655,9 +3642,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="1">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>165</v>
@@ -3675,9 +3662,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="1">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>166</v>
@@ -3695,9 +3682,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="1">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>168</v>
@@ -3715,9 +3702,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>169</v>
@@ -3735,9 +3722,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="1">
-        <v>137</v>
+        <v>137.0</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>170</v>
@@ -3755,9 +3742,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="1">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>171</v>
@@ -3775,9 +3762,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="1">
-        <v>139</v>
+        <v>139.0</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>172</v>
@@ -3795,9 +3782,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="1">
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>173</v>
@@ -3815,9 +3802,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="1">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>174</v>
@@ -3835,9 +3822,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>175</v>
@@ -3855,9 +3842,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="1">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>176</v>
@@ -3875,9 +3862,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>177</v>
@@ -3895,9 +3882,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="1">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>178</v>
@@ -3915,9 +3902,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="1">
-        <v>146</v>
+        <v>146.0</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>179</v>
@@ -3935,9 +3922,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="1">
-        <v>147</v>
+        <v>147.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>180</v>
@@ -3955,9 +3942,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="1">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>181</v>
@@ -3975,9 +3962,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="1">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>182</v>
@@ -3995,9 +3982,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>183</v>
@@ -4015,9 +4002,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>184</v>
@@ -4035,9 +4022,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="1">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>185</v>
@@ -4055,9 +4042,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="1">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>186</v>
@@ -4075,9 +4062,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="1">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>187</v>
@@ -4095,9 +4082,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="1">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>188</v>
@@ -4115,9 +4102,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="1">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>189</v>
@@ -4135,9 +4122,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="1">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>190</v>
@@ -4155,9 +4142,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="1">
-        <v>158</v>
+        <v>158.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>191</v>
@@ -4175,9 +4162,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="1">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>192</v>
@@ -4195,9 +4182,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="1">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
@@ -4215,9 +4202,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="1">
-        <v>161</v>
+        <v>161.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>194</v>
@@ -4235,9 +4222,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="1">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>195</v>
@@ -4255,9 +4242,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="1">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>196</v>
@@ -4275,9 +4262,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="1">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>197</v>
@@ -4295,9 +4282,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="1">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>198</v>
@@ -4315,9 +4302,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="1">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>199</v>
@@ -4335,9 +4322,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="1">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>200</v>
@@ -4355,9 +4342,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="1">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>201</v>
@@ -4375,9 +4362,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="1">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>202</v>
@@ -4395,9 +4382,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="1">
-        <v>170</v>
+        <v>170.0</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>203</v>
@@ -4415,9 +4402,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="1">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>204</v>
@@ -4435,9 +4422,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="1">
-        <v>172</v>
+        <v>172.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>205</v>
@@ -4455,9 +4442,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="1">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>206</v>
@@ -4475,9 +4462,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="1">
-        <v>174</v>
+        <v>174.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>207</v>
@@ -4495,9 +4482,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="1">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>208</v>
@@ -4515,9 +4502,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="1">
-        <v>176</v>
+        <v>176.0</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>209</v>
@@ -4535,9 +4522,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="1">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>210</v>
@@ -4555,9 +4542,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="1">
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>211</v>
@@ -4575,9 +4562,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="1">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>212</v>
@@ -4595,9 +4582,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="1">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>213</v>
@@ -4615,9 +4602,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="1">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>214</v>
@@ -4635,9 +4622,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="1">
-        <v>182</v>
+        <v>182.0</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>215</v>
@@ -4655,9 +4642,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="1">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>216</v>
@@ -4675,9 +4662,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="1">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>218</v>
@@ -4695,9 +4682,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="1">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>220</v>
@@ -4715,9 +4702,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="1">
-        <v>186</v>
+        <v>186.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>221</v>
@@ -4735,9 +4722,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="1">
-        <v>187</v>
+        <v>187.0</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>222</v>
@@ -4755,9 +4742,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="1">
-        <v>188</v>
+        <v>188.0</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>223</v>
@@ -4775,9 +4762,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="1">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>224</v>
@@ -4795,9 +4782,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="1">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>225</v>
@@ -4815,9 +4802,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="1">
-        <v>191</v>
+        <v>191.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>226</v>
@@ -4835,9 +4822,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="1">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>227</v>
@@ -4855,9 +4842,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="1">
-        <v>193</v>
+        <v>193.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>228</v>
@@ -4875,9 +4862,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="1">
-        <v>194</v>
+        <v>194.0</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>229</v>
@@ -4895,9 +4882,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="1">
-        <v>195</v>
+        <v>195.0</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>230</v>
@@ -4915,9 +4902,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="1">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>231</v>
@@ -4935,9 +4922,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="1">
-        <v>197</v>
+        <v>197.0</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>232</v>
@@ -4956,6 +4943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/db (1).xlsx
+++ b/storage/db (1).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ussage\VS Code Projects\Pencak Silat Deploy\juri_pencak\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC07F4-6219-4786-A046-A58AED74806B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -715,30 +724,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -748,51 +759,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -982,29 +1000,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5436F1-62D9-4CDA-8275-B1632BA9FBFE}">
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.38"/>
-    <col customWidth="1" min="2" max="2" width="37.38"/>
-    <col customWidth="1" min="3" max="3" width="18.63"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="9.13"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1022,9 +1035,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1042,9 +1055,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1062,9 +1075,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1082,9 +1095,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1102,9 +1115,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1122,9 +1135,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1142,9 +1155,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -1162,9 +1175,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1182,9 +1195,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1202,9 +1215,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1222,9 +1235,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1242,9 +1255,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1262,9 +1275,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1282,9 +1295,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1302,9 +1315,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -1322,9 +1335,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1342,9 +1355,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1362,9 +1375,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -1382,9 +1395,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1402,9 +1415,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1422,9 +1435,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -1442,9 +1455,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -1462,9 +1475,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1482,9 +1495,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1502,9 +1515,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -1522,9 +1535,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
@@ -1542,9 +1555,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -1562,9 +1575,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -1582,9 +1595,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>46</v>
@@ -1602,9 +1615,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>47</v>
@@ -1622,9 +1635,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
@@ -1642,9 +1655,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -1662,9 +1675,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
@@ -1682,9 +1695,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -1702,9 +1715,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
@@ -1722,9 +1735,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>57</v>
@@ -1742,9 +1755,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1762,9 +1775,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>59</v>
@@ -1782,9 +1795,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>61</v>
@@ -1802,9 +1815,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -1822,9 +1835,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -1842,9 +1855,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
@@ -1862,9 +1875,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -1882,9 +1895,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>66</v>
@@ -1902,9 +1915,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>67</v>
@@ -1922,9 +1935,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -1942,9 +1955,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
@@ -1962,9 +1975,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
@@ -1982,9 +1995,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>71</v>
@@ -2002,9 +2015,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>73</v>
@@ -2022,9 +2035,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>74</v>
@@ -2042,9 +2055,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>68</v>
@@ -2062,9 +2075,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>76</v>
@@ -2082,9 +2095,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>78</v>
@@ -2102,9 +2115,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>79</v>
@@ -2122,9 +2135,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -2142,9 +2155,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
@@ -2162,9 +2175,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -2182,9 +2195,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>84</v>
@@ -2202,9 +2215,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -2222,9 +2235,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
@@ -2242,9 +2255,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>87</v>
@@ -2262,9 +2275,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>88</v>
@@ -2282,9 +2295,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
@@ -2302,9 +2315,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>90</v>
@@ -2322,9 +2335,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2342,9 +2355,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>92</v>
@@ -2362,9 +2375,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
@@ -2382,9 +2395,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>94</v>
@@ -2402,9 +2415,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
@@ -2422,9 +2435,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -2442,9 +2455,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>97</v>
@@ -2462,9 +2475,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
@@ -2482,9 +2495,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2502,9 +2515,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2522,9 +2535,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2542,9 +2555,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>103</v>
@@ -2562,9 +2575,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -2582,9 +2595,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>105</v>
@@ -2602,9 +2615,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>106</v>
@@ -2622,9 +2635,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>107</v>
@@ -2642,9 +2655,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>108</v>
@@ -2662,9 +2675,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>109</v>
@@ -2682,9 +2695,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>110</v>
@@ -2702,9 +2715,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
@@ -2722,9 +2735,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
@@ -2742,9 +2755,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>113</v>
@@ -2762,9 +2775,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>114</v>
@@ -2782,9 +2795,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>115</v>
@@ -2802,9 +2815,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>116</v>
@@ -2822,9 +2835,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>117</v>
@@ -2842,9 +2855,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>118</v>
@@ -2862,9 +2875,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>119</v>
@@ -2882,9 +2895,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>120</v>
@@ -2902,9 +2915,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>121</v>
@@ -2922,9 +2935,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>122</v>
@@ -2942,9 +2955,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>123</v>
@@ -2962,9 +2975,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>124</v>
@@ -2982,9 +2995,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>125</v>
@@ -3002,9 +3015,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>126</v>
@@ -3022,9 +3035,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -3042,9 +3055,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>129</v>
@@ -3062,9 +3075,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>131</v>
@@ -3082,9 +3095,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>133</v>
@@ -3102,9 +3115,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>135</v>
@@ -3122,9 +3135,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -3142,9 +3155,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>138</v>
@@ -3162,9 +3175,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>140</v>
@@ -3182,9 +3195,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>142</v>
@@ -3202,9 +3215,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>143</v>
@@ -3222,9 +3235,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>144</v>
@@ -3242,9 +3255,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>145</v>
@@ -3262,9 +3275,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3282,9 +3295,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>147</v>
@@ -3302,9 +3315,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>148</v>
@@ -3322,9 +3335,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3342,9 +3355,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>150</v>
@@ -3362,9 +3375,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>151</v>
@@ -3382,9 +3395,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>152</v>
@@ -3402,9 +3415,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>153</v>
@@ -3422,9 +3435,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>154</v>
@@ -3442,9 +3455,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>155</v>
@@ -3462,9 +3475,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>156</v>
@@ -3482,9 +3495,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>157</v>
@@ -3502,9 +3515,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>158</v>
@@ -3522,9 +3535,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>159</v>
@@ -3542,9 +3555,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>160</v>
@@ -3562,9 +3575,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>161</v>
@@ -3582,9 +3595,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>162</v>
@@ -3602,9 +3615,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>163</v>
@@ -3622,9 +3635,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>164</v>
@@ -3642,9 +3655,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>165</v>
@@ -3662,9 +3675,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>166</v>
@@ -3682,9 +3695,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>168</v>
@@ -3702,9 +3715,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>169</v>
@@ -3722,9 +3735,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>170</v>
@@ -3742,9 +3755,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>171</v>
@@ -3762,9 +3775,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>172</v>
@@ -3782,9 +3795,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>173</v>
@@ -3802,9 +3815,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>174</v>
@@ -3822,9 +3835,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>175</v>
@@ -3842,9 +3855,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>176</v>
@@ -3862,9 +3875,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>177</v>
@@ -3882,9 +3895,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>178</v>
@@ -3902,9 +3915,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>179</v>
@@ -3922,9 +3935,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>180</v>
@@ -3942,9 +3955,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>181</v>
@@ -3962,9 +3975,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>182</v>
@@ -3982,9 +3995,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>183</v>
@@ -4002,9 +4015,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>184</v>
@@ -4022,9 +4035,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>185</v>
@@ -4042,9 +4055,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>186</v>
@@ -4062,9 +4075,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>187</v>
@@ -4082,9 +4095,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>188</v>
@@ -4102,9 +4115,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>189</v>
@@ -4122,9 +4135,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>190</v>
@@ -4142,9 +4155,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>191</v>
@@ -4162,9 +4175,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>192</v>
@@ -4182,9 +4195,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
@@ -4202,9 +4215,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>194</v>
@@ -4222,9 +4235,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>195</v>
@@ -4242,9 +4255,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>196</v>
@@ -4262,9 +4275,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>197</v>
@@ -4282,9 +4295,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>198</v>
@@ -4302,9 +4315,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>199</v>
@@ -4322,9 +4335,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>200</v>
@@ -4342,9 +4355,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>201</v>
@@ -4362,9 +4375,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>202</v>
@@ -4382,9 +4395,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>203</v>
@@ -4402,9 +4415,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>204</v>
@@ -4422,9 +4435,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>205</v>
@@ -4442,9 +4455,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>206</v>
@@ -4462,9 +4475,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>207</v>
@@ -4482,9 +4495,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>208</v>
@@ -4502,9 +4515,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>209</v>
@@ -4522,9 +4535,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>210</v>
@@ -4542,9 +4555,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>211</v>
@@ -4562,9 +4575,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>212</v>
@@ -4582,9 +4595,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>213</v>
@@ -4602,9 +4615,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>214</v>
@@ -4622,9 +4635,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>215</v>
@@ -4642,9 +4655,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>216</v>
@@ -4662,9 +4675,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>218</v>
@@ -4682,9 +4695,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>220</v>
@@ -4702,9 +4715,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>221</v>
@@ -4722,9 +4735,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>222</v>
@@ -4742,9 +4755,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>223</v>
@@ -4762,9 +4775,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>224</v>
@@ -4782,9 +4795,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>225</v>
@@ -4802,9 +4815,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>226</v>
@@ -4822,9 +4835,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>227</v>
@@ -4842,9 +4855,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>228</v>
@@ -4862,9 +4875,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>229</v>
@@ -4882,9 +4895,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>230</v>
@@ -4902,9 +4915,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>231</v>
@@ -4922,9 +4935,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>232</v>
@@ -4943,6 +4956,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>